--- a/N2C/table_add.xlsx
+++ b/N2C/table_add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\nr001\N2C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D674039-93A5-48EC-9201-0A3384510340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B13A81E-2ACD-41C5-A271-1CBBCC9F08AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="995">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -4257,6 +4257,18 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>第１業務区分内容</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>第２業務区分</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>第２業務区分内容</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -5179,7 +5191,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5534,22 +5546,16 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -5600,23 +5606,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5645,22 +5657,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6070,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K283" sqref="K283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -6099,107 +6105,107 @@
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="123"/>
+      <c r="C5" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="141"/>
       <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="143"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
+      <c r="B8" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="130"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -15450,8 +15456,12 @@
       <c r="E277" s="20"/>
       <c r="F277" s="29"/>
       <c r="G277" s="30"/>
-      <c r="H277" s="156"/>
-      <c r="I277" s="156"/>
+      <c r="H277" s="83" t="s">
+        <v>990</v>
+      </c>
+      <c r="I277" s="20" t="s">
+        <v>991</v>
+      </c>
       <c r="M277" s="76"/>
       <c r="N277" s="76"/>
     </row>
@@ -16716,10 +16726,10 @@
       <c r="E321" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F321" s="158" t="s">
+      <c r="F321" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="G321" s="159" t="s">
+      <c r="G321" s="120" t="s">
         <v>609</v>
       </c>
       <c r="H321" s="1" t="str">
@@ -16731,9 +16741,9 @@
       <c r="A322" s="4">
         <v>308</v>
       </c>
-      <c r="B322" s="160"/>
-      <c r="C322" s="160"/>
-      <c r="D322" s="160"/>
+      <c r="B322" s="121"/>
+      <c r="C322" s="121"/>
+      <c r="D322" s="121"/>
       <c r="E322" s="22" t="s">
         <v>12</v>
       </c>
@@ -16745,13 +16755,8 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A323" s="155"/>
-      <c r="B323" s="156"/>
-      <c r="C323" s="156"/>
-      <c r="D323" s="156"/>
-      <c r="E323" s="156"/>
-      <c r="F323" s="157"/>
-      <c r="G323" s="157"/>
+      <c r="F323" s="118"/>
+      <c r="G323" s="118"/>
     </row>
     <row r="325" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A325" s="2" t="s">
@@ -16786,10 +16791,10 @@
       <c r="B327" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C327" s="134" t="s">
+      <c r="C327" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="D327" s="135"/>
+      <c r="D327" s="133"/>
       <c r="E327" s="24"/>
       <c r="F327" s="24"/>
       <c r="G327" s="25"/>
@@ -16801,10 +16806,10 @@
       <c r="B328" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C328" s="136" t="s">
+      <c r="C328" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D328" s="137"/>
+      <c r="D328" s="135"/>
       <c r="E328" s="20"/>
       <c r="F328" s="20" t="s">
         <v>344</v>
@@ -16818,10 +16823,10 @@
       <c r="B329" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C329" s="138" t="s">
+      <c r="C329" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="D329" s="139"/>
+      <c r="D329" s="137"/>
       <c r="E329" s="22"/>
       <c r="F329" s="22"/>
       <c r="G329" s="23"/>
@@ -16843,21 +16848,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C327:D327"/>
     <mergeCell ref="C328:D328"/>
     <mergeCell ref="C329:D329"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16868,8 +16873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="A154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -16898,107 +16903,107 @@
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="140" t="s">
         <v>961</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="143"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="123"/>
+      <c r="C5" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="141"/>
       <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="143"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="140" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
+      <c r="B8" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="130"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -17027,10 +17032,10 @@
       <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="140" t="s">
+      <c r="H13" s="144" t="s">
         <v>638</v>
       </c>
-      <c r="I13" s="141"/>
+      <c r="I13" s="145"/>
       <c r="L13" s="75" t="s">
         <v>926</v>
       </c>
@@ -21774,7 +21779,7 @@
         <v>12</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>474</v>
+        <v>992</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>27</v>
@@ -21808,7 +21813,7 @@
         <v>12</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>333</v>
+        <v>993</v>
       </c>
       <c r="D145" s="20" t="s">
         <v>27</v>
@@ -21842,7 +21847,7 @@
         <v>12</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>475</v>
+        <v>994</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>27</v>
@@ -22624,10 +22629,10 @@
       <c r="B177" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="C177" s="134" t="s">
+      <c r="C177" s="132" t="s">
         <v>364</v>
       </c>
-      <c r="D177" s="135"/>
+      <c r="D177" s="133"/>
       <c r="E177" s="24" t="s">
         <v>30</v>
       </c>
@@ -22646,10 +22651,10 @@
       <c r="B178" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="C178" s="136" t="s">
+      <c r="C178" s="134" t="s">
         <v>256</v>
       </c>
-      <c r="D178" s="137"/>
+      <c r="D178" s="135"/>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
       <c r="G178" s="21"/>
@@ -22664,10 +22669,10 @@
       <c r="B179" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="C179" s="136" t="s">
+      <c r="C179" s="134" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="137"/>
+      <c r="D179" s="135"/>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
       <c r="G179" s="21"/>
@@ -22682,10 +22687,10 @@
       <c r="B180" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="C180" s="136" t="s">
+      <c r="C180" s="134" t="s">
         <v>367</v>
       </c>
-      <c r="D180" s="137"/>
+      <c r="D180" s="135"/>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
       <c r="G180" s="21"/>
@@ -22697,10 +22702,10 @@
       <c r="B181" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C181" s="136" t="s">
+      <c r="C181" s="134" t="s">
         <v>443</v>
       </c>
-      <c r="D181" s="137"/>
+      <c r="D181" s="135"/>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
       <c r="G181" s="21"/>
@@ -22712,10 +22717,10 @@
       <c r="B182" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="C182" s="136" t="s">
+      <c r="C182" s="134" t="s">
         <v>411</v>
       </c>
-      <c r="D182" s="137"/>
+      <c r="D182" s="135"/>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
       <c r="G182" s="21"/>
@@ -22730,10 +22735,10 @@
       <c r="B183" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="C183" s="136" t="s">
+      <c r="C183" s="134" t="s">
         <v>384</v>
       </c>
-      <c r="D183" s="137"/>
+      <c r="D183" s="135"/>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
       <c r="G183" s="21"/>
@@ -22745,10 +22750,10 @@
       <c r="B184" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="C184" s="136" t="s">
+      <c r="C184" s="134" t="s">
         <v>412</v>
       </c>
-      <c r="D184" s="137"/>
+      <c r="D184" s="135"/>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
       <c r="G184" s="21"/>
@@ -22760,10 +22765,10 @@
       <c r="B185" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="C185" s="136" t="s">
+      <c r="C185" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D185" s="137"/>
+      <c r="D185" s="135"/>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
       <c r="G185" s="21"/>
@@ -22775,10 +22780,10 @@
       <c r="B186" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="C186" s="136" t="s">
+      <c r="C186" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="D186" s="137"/>
+      <c r="D186" s="135"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
       <c r="G186" s="21"/>
@@ -22790,10 +22795,10 @@
       <c r="B187" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C187" s="136" t="s">
+      <c r="C187" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="D187" s="137"/>
+      <c r="D187" s="135"/>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
       <c r="G187" s="21"/>
@@ -22805,10 +22810,10 @@
       <c r="B188" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="C188" s="136" t="s">
+      <c r="C188" s="134" t="s">
         <v>253</v>
       </c>
-      <c r="D188" s="137"/>
+      <c r="D188" s="135"/>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
       <c r="G188" s="21"/>
@@ -22820,10 +22825,10 @@
       <c r="B189" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="C189" s="136" t="s">
+      <c r="C189" s="134" t="s">
         <v>370</v>
       </c>
-      <c r="D189" s="137"/>
+      <c r="D189" s="135"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
       <c r="G189" s="21"/>
@@ -22835,10 +22840,10 @@
       <c r="B190" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="C190" s="136" t="s">
+      <c r="C190" s="134" t="s">
         <v>469</v>
       </c>
-      <c r="D190" s="137"/>
+      <c r="D190" s="135"/>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
       <c r="G190" s="21"/>
@@ -22850,10 +22855,10 @@
       <c r="B191" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="C191" s="136" t="s">
+      <c r="C191" s="134" t="s">
         <v>507</v>
       </c>
-      <c r="D191" s="137"/>
+      <c r="D191" s="135"/>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
       <c r="G191" s="21"/>
@@ -22865,29 +22870,16 @@
       <c r="B192" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="C192" s="138" t="s">
+      <c r="C192" s="136" t="s">
         <v>349</v>
       </c>
-      <c r="D192" s="139"/>
+      <c r="D192" s="137"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
       <c r="G192" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C2:D2"/>
@@ -22904,6 +22896,19 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22944,107 +22949,107 @@
       <c r="B2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="156" t="s">
         <v>510</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="157" t="s">
         <v>511</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>512</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="121"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="143"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="157" t="s">
         <v>513</v>
       </c>
-      <c r="D5" s="123"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="157" t="s">
         <v>514</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="143"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="157" t="s">
         <v>603</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="121"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
+      <c r="B8" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="130"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="38" t="s">
@@ -24095,7 +24100,7 @@
       <c r="C55" s="152" t="s">
         <v>586</v>
       </c>
-      <c r="D55" s="135"/>
+      <c r="D55" s="133"/>
       <c r="E55" s="49" t="s">
         <v>30</v>
       </c>
@@ -24114,7 +24119,7 @@
       <c r="C56" s="146" t="s">
         <v>577</v>
       </c>
-      <c r="D56" s="137"/>
+      <c r="D56" s="135"/>
       <c r="E56" s="53"/>
       <c r="F56" s="53"/>
       <c r="G56" s="63"/>
@@ -24129,7 +24134,7 @@
       <c r="C57" s="149" t="s">
         <v>574</v>
       </c>
-      <c r="D57" s="139"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="57"/>
       <c r="F57" s="57"/>
       <c r="G57" s="64"/>
@@ -24248,14 +24253,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -24268,6 +24265,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24303,107 +24308,107 @@
       <c r="B2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="156" t="s">
         <v>510</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="157" t="s">
         <v>966</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>512</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="121"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="143"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="157" t="s">
         <v>980</v>
       </c>
-      <c r="D5" s="123"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="157" t="s">
         <v>967</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="143"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="157" t="s">
         <v>981</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="121"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="126"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
+      <c r="B8" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="130"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="38" t="s">
@@ -24712,7 +24717,7 @@
       <c r="C28" s="152" t="s">
         <v>364</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="49" t="s">
         <v>30</v>
       </c>
@@ -24731,19 +24736,13 @@
       <c r="C29" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="139"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
       <c r="G29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C5:D5"/>
@@ -24752,6 +24751,12 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
